--- a/tracking_data.xlsx
+++ b/tracking_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>Tracking ID</t>
   </si>
@@ -28,16 +28,37 @@
     <t>Timestamp</t>
   </si>
   <si>
-    <t>123456</t>
+    <t>19919</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>11111</t>
   </si>
   <si>
     <t>In Transit</t>
   </si>
   <si>
+    <t>Placed Order</t>
+  </si>
+  <si>
+    <t>Out for delivery</t>
+  </si>
+  <si>
     <t>Chennai</t>
   </si>
   <si>
     <t>2023-08-10 21:43:30</t>
+  </si>
+  <si>
+    <t>2023-10-10 07:27:50</t>
+  </si>
+  <si>
+    <t>2023-10-10 07:31:34</t>
+  </si>
+  <si>
+    <t>2023-10-10 07:32:21</t>
   </si>
 </sst>
 </file>
@@ -395,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -416,73 +437,115 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>123456</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>123456</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>123456</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>123456</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>123456</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
